--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/RePaymentTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/RePaymentTestCase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,10 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pieces_apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,13 +461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专科</t>
-    <rPh sb="0" eb="1">
-      <t>zhuan'k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,14 +474,6 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -511,22 +492,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正例(不用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正例-还款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expectResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,10 +513,6 @@
   </si>
   <si>
     <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -932,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU5"/>
+  <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -986,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -1058,7 +1023,7 @@
         <v>72</v>
       </c>
       <c r="Z1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA1" t="s">
         <v>27</v>
@@ -1067,7 +1032,7 @@
         <v>28</v>
       </c>
       <c r="AC1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD1" t="s">
         <v>29</v>
@@ -1115,7 +1080,7 @@
         <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="AT1" t="s">
         <v>4</v>
@@ -1126,22 +1091,22 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>69</v>
@@ -1165,16 +1130,16 @@
         <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P2" t="s">
         <v>48</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="R2" t="s">
         <v>49</v>
@@ -1201,10 +1166,10 @@
         <v>74</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AA2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s">
         <v>53</v>
@@ -1246,7 +1211,7 @@
         <v>70</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AP2" t="s">
         <v>59</v>
@@ -1258,30 +1223,30 @@
         <v>60</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AU2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:47">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>69</v>
@@ -1305,16 +1270,16 @@
         <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="P3" t="s">
         <v>48</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="R3" t="s">
         <v>49</v>
@@ -1332,19 +1297,19 @@
         <v>52</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s">
         <v>53</v>
@@ -1386,7 +1351,7 @@
         <v>70</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AP3" t="s">
         <v>59</v>
@@ -1398,10 +1363,10 @@
         <v>60</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AU3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:47">
@@ -1409,19 +1374,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>69</v>
@@ -1445,16 +1410,16 @@
         <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P4" t="s">
         <v>48</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="R4" t="s">
         <v>49</v>
@@ -1472,19 +1437,19 @@
         <v>52</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s">
         <v>53</v>
@@ -1526,7 +1491,7 @@
         <v>70</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AP4" t="s">
         <v>59</v>
@@ -1538,150 +1503,10 @@
         <v>60</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AU4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" t="s">
-        <v>89</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V5" t="s">
-        <v>52</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.1" customHeight="1">
@@ -1737,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
